--- a/data/questionnaires/version1/question_section.xlsx
+++ b/data/questionnaires/version1/question_section.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>PERSONAL_HISTORY</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>FAMILY_OVARIAN_AGE</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>Family History</t>
+  </si>
+  <si>
+    <t>Personal History</t>
+  </si>
+  <si>
+    <t>Male Breast Cancer</t>
   </si>
 </sst>
 </file>
@@ -408,22 +423,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="2" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -431,24 +446,27 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -456,16 +474,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -473,191 +494,227 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
     </row>

--- a/data/questionnaires/version1/question_section.xlsx
+++ b/data/questionnaires/version1/question_section.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>PERSONAL_HISTORY</t>
   </si>
@@ -36,15 +36,6 @@
     <t>question_group_id</t>
   </si>
   <si>
-    <t>FAMILY_BREAST_HOW_MANY</t>
-  </si>
-  <si>
-    <t>FAMILY_BREAST_AGE</t>
-  </si>
-  <si>
-    <t>FAMILY_OVARIAN_HOW_MANY</t>
-  </si>
-  <si>
     <t>CONSENT_FORM</t>
   </si>
   <si>
@@ -60,18 +51,6 @@
     <t>FAMILY_AFFECTED_HALF_SISTER</t>
   </si>
   <si>
-    <t>MALE_BREAST_CANCER</t>
-  </si>
-  <si>
-    <t>FAMILY_BREAST_AFFECTED</t>
-  </si>
-  <si>
-    <t>FAMILY_OVARIAN_AFFECTED</t>
-  </si>
-  <si>
-    <t>FAMILY_OVARIAN_AGE</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -81,10 +60,16 @@
     <t>Family History</t>
   </si>
   <si>
-    <t>Personal History</t>
-  </si>
-  <si>
-    <t>Male Breast Cancer</t>
+    <t>Your History</t>
+  </si>
+  <si>
+    <t>FAMILY_AFFECTED</t>
+  </si>
+  <si>
+    <t>FAMILY_BREAST</t>
+  </si>
+  <si>
+    <t>FAMILY_OVARIAN</t>
   </si>
 </sst>
 </file>
@@ -423,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -463,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -486,7 +471,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -503,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -523,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -543,10 +528,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -566,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -583,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -606,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -623,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -636,86 +621,6 @@
       </c>
       <c r="F10">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/questionnaires/version1/question_section.xlsx
+++ b/data/questionnaires/version1/question_section.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>PERSONAL_HISTORY</t>
   </si>
@@ -70,6 +70,39 @@
   </si>
   <si>
     <t>FAMILY_OVARIAN</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>ovarian</t>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>aunt</t>
+  </si>
+  <si>
+    <t>niece</t>
+  </si>
+  <si>
+    <t>halfsister</t>
+  </si>
+  <si>
+    <t>history</t>
   </si>
 </sst>
 </file>
@@ -408,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +456,7 @@
     <col min="8" max="8" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -442,8 +475,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,8 +501,14 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -482,8 +527,14 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,8 +553,14 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -522,8 +579,14 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -542,8 +605,14 @@
       <c r="F6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -562,8 +631,14 @@
       <c r="F7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -582,8 +657,14 @@
       <c r="F8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -602,8 +683,14 @@
       <c r="F9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -621,6 +708,12 @@
       </c>
       <c r="F10">
         <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
